--- a/Kravlista.xlsx
+++ b/Kravlista.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Krav</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t xml:space="preserve"> AF 1.1 Köpa ett gymkort </t>
+  </si>
+  <si>
+    <t>AF 1.2 Kontrollera medleskapsstatus</t>
+  </si>
+  <si>
+    <t>AF 1.3 Hämta tillfällig portkod</t>
+  </si>
+  <si>
+    <t>BK 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK1.1.2, </t>
+  </si>
+  <si>
+    <t>Anton</t>
   </si>
 </sst>
 </file>
@@ -371,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -407,8 +422,33 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Kravlista.xlsx
+++ b/Kravlista.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Krav</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Anton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kund </t>
+  </si>
+  <si>
+    <t>AF 2.1 Administrera medlemmar</t>
+  </si>
+  <si>
+    <t>Gymansvarig</t>
+  </si>
+  <si>
+    <t>BK 2 ,BK 2.2</t>
   </si>
 </sst>
 </file>
@@ -386,15 +398,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -422,6 +436,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -433,8 +450,14 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -444,11 +467,31 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Kravlista.xlsx
+++ b/Kravlista.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Krav</t>
   </si>
@@ -60,13 +60,19 @@
     <t xml:space="preserve">kund </t>
   </si>
   <si>
-    <t>AF 2.1 Administrera medlemmar</t>
-  </si>
-  <si>
     <t>Gymansvarig</t>
   </si>
   <si>
     <t>BK 2 ,BK 2.2</t>
+  </si>
+  <si>
+    <t>AF 2.1 Hämta medlemsregister</t>
+  </si>
+  <si>
+    <t>AF 2.2 Skicka mail till medlemmarna</t>
+  </si>
+  <si>
+    <t>BK 2.2, BK 3</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,7 +454,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -460,38 +466,52 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Kravlista.xlsx
+++ b/Kravlista.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Krav</t>
   </si>
@@ -39,9 +39,6 @@
     <t>BK1, BK1.1, BK 1.1.2, BK 1.2, BK 1.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> AF 1.1 Köpa ett gymkort </t>
-  </si>
-  <si>
     <t>AF 1.2 Kontrollera medleskapsstatus</t>
   </si>
   <si>
@@ -73,6 +70,66 @@
   </si>
   <si>
     <t>BK 2.2, BK 3</t>
+  </si>
+  <si>
+    <t>F1 Köpa medlemskap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF 1.1 Medlemskap gymkort </t>
+  </si>
+  <si>
+    <t>F2 Tillgång till gymmet</t>
+  </si>
+  <si>
+    <t>B 1 Befintliga kunder</t>
+  </si>
+  <si>
+    <t>B 2 Befintliga kunders inloggningssida</t>
+  </si>
+  <si>
+    <t>B 3 Betalningsmetoder</t>
+  </si>
+  <si>
+    <t>Anv 1 Grafisk utformning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anv 2 Igenkännande design </t>
+  </si>
+  <si>
+    <t>Anv 3 Professionell design</t>
+  </si>
+  <si>
+    <t>Tillg 1 Systemets tillgänglighet</t>
+  </si>
+  <si>
+    <t>Tillg 2 Webbläsarsupport</t>
+  </si>
+  <si>
+    <t>AF 1.4 Återställa lösenord</t>
+  </si>
+  <si>
+    <t>AF 1.5 Logga in</t>
+  </si>
+  <si>
+    <t>AF 2.3 Kontrollera medlemskapets status</t>
+  </si>
+  <si>
+    <t>BK 3</t>
+  </si>
+  <si>
+    <t>BK 4</t>
+  </si>
+  <si>
+    <t>BK 1.3</t>
+  </si>
+  <si>
+    <t>BK 1.4</t>
+  </si>
+  <si>
+    <t>BK 1, BK 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AF 1.1 Köpa medlemskap</t>
   </si>
 </sst>
 </file>
@@ -404,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -440,78 +497,224 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Kravlista.xlsx
+++ b/Kravlista.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
